--- a/DC&EC ACTUALIZADO HASTA 31 DE MARZO/ALLAN/Cesar.xlsx
+++ b/DC&EC ACTUALIZADO HASTA 31 DE MARZO/ALLAN/Cesar.xlsx
@@ -1,215 +1,223 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVIN CAMPOSECO\Documents\Kevin_Proyecto\Rprogramming\DC&amp;EC ACTUALIZADO HASTA 31 DE MARZO\ALLAN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDED51A-A83B-4307-BA1E-AA619C9BF271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
-  <si>
-    <t xml:space="preserve">idTecnico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tecnico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comunidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idEvento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo.de.Evento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titulo.Evento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha.de.Creacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha.de.Evento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participantes.(Sin.Personal.Proyecto)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesar Gilberto Guzmán Hernández</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quetzaltenango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Juan Ostuncalco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sector dos buena vista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nutrición cultivo de papa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genética y Nutrición</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="80">
+  <si>
+    <t>idTecnico</t>
+  </si>
+  <si>
+    <t>Tecnico</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Comunidad</t>
+  </si>
+  <si>
+    <t>idEvento</t>
+  </si>
+  <si>
+    <t>Tipo.de.Evento</t>
+  </si>
+  <si>
+    <t>Titulo.Evento</t>
+  </si>
+  <si>
+    <t>Programa</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>Fecha.de.Creacion</t>
+  </si>
+  <si>
+    <t>Fecha.de.Evento</t>
+  </si>
+  <si>
+    <t>Participantes.(Sin.Personal.Proyecto)</t>
+  </si>
+  <si>
+    <t>Cesar Gilberto Guzmán Hernández</t>
+  </si>
+  <si>
+    <t>Quetzaltenango</t>
+  </si>
+  <si>
+    <t>San Juan Ostuncalco</t>
+  </si>
+  <si>
+    <t>sector dos buena vista</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>nutrición cultivo de papa</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Genética y Nutrición</t>
   </si>
   <si>
     <t xml:space="preserve">equipo para aplicar fertilizante granulado </t>
   </si>
   <si>
-    <t xml:space="preserve">Mantenimiento y calibración de equipo de aplicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestina de los Altos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caserío las delicias, aldea el Edén</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia de campo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reservorio de agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conservación de Suelo y Agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caserío las delicias, aldea el Edén, palestina de los altos.</t>
+    <t>Mantenimiento y calibración de equipo de aplicación</t>
+  </si>
+  <si>
+    <t>Palestina de los Altos</t>
+  </si>
+  <si>
+    <t>caserío las delicias, aldea el Edén</t>
+  </si>
+  <si>
+    <t>Dia de campo</t>
+  </si>
+  <si>
+    <t>reservorio de agua</t>
+  </si>
+  <si>
+    <t>Conservación de Suelo y Agua</t>
+  </si>
+  <si>
+    <t>caserío las delicias, aldea el Edén, palestina de los altos.</t>
   </si>
   <si>
     <t xml:space="preserve">implementación de cosechador de agua de lluavia </t>
   </si>
   <si>
-    <t xml:space="preserve">San Martín Sacatepéquez</t>
+    <t>San Martín Sacatepéquez</t>
   </si>
   <si>
     <t xml:space="preserve">toj coman </t>
   </si>
   <si>
-    <t xml:space="preserve">Uso de equipo de protección personal EPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de Equipo de Protección Personal (EPP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toj coman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nutrición y fertilización cultivo de papa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concepción Chiquirichapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tuilcanabaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nutrición vegetal cultivo de papa</t>
+    <t>Uso de equipo de protección personal EPP</t>
+  </si>
+  <si>
+    <t>Uso de Equipo de Protección Personal (EPP)</t>
+  </si>
+  <si>
+    <t>toj coman</t>
+  </si>
+  <si>
+    <t>nutrición y fertilización cultivo de papa</t>
+  </si>
+  <si>
+    <t>Concepción Chiquirichapa</t>
+  </si>
+  <si>
+    <t>tuilcanabaj</t>
+  </si>
+  <si>
+    <t>nutrición vegetal cultivo de papa</t>
   </si>
   <si>
     <t xml:space="preserve">manejo de mini centro de acopio de envases vacios </t>
   </si>
   <si>
-    <t xml:space="preserve">Uso y Manejo Responsable de Plaguicidas (Persuap)</t>
+    <t>Uso y Manejo Responsable de Plaguicidas (Persuap)</t>
   </si>
   <si>
     <t xml:space="preserve">manejo adecuado de prestamos y finamciamiento con apoyo de genesis empresarial </t>
   </si>
   <si>
-    <t xml:space="preserve">Manejo Agronómico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duraznales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentación proyecto PROINNOVA y nutrición cultivo de papa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palestina de los altos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrega de materiales a beneficiarios para la construcción de reservorios (cosechador agua de lluvia)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caserío las delicias aldea el Edén</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipo para la aplicación de fertilizantes granulados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">municipalidad de Palestina de los Altos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trazo y elaboración de reservorio, (cosechador de agua de lluvia)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manejo agronómico cultivo de papa y nutrición</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buena vista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genética y nutrición cultivo de tomate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uso de AgriConecta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uso de equipos de protección personal EPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control de plagas y enfermedades en el suelo, cultivo de papa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manejo Integrado de Plagas y Enfermedades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentación de PROINNOVA y sus líneas de trabajo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caserío las delicias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosechadora de agua ( Reservorio)</t>
+    <t>Manejo Agronómico</t>
+  </si>
+  <si>
+    <t>Duraznales</t>
+  </si>
+  <si>
+    <t>Presentación proyecto PROINNOVA y nutrición cultivo de papa</t>
+  </si>
+  <si>
+    <t>palestina de los altos</t>
+  </si>
+  <si>
+    <t>Entrega de materiales a beneficiarios para la construcción de reservorios (cosechador agua de lluvia)</t>
+  </si>
+  <si>
+    <t>caserío las delicias aldea el Edén</t>
+  </si>
+  <si>
+    <t>Equipo para la aplicación de fertilizantes granulados</t>
+  </si>
+  <si>
+    <t>municipalidad de Palestina de los Altos</t>
+  </si>
+  <si>
+    <t>Trazo y elaboración de reservorio, (cosechador de agua de lluvia)</t>
+  </si>
+  <si>
+    <t>manejo agronómico cultivo de papa y nutrición</t>
+  </si>
+  <si>
+    <t>Buena vista</t>
+  </si>
+  <si>
+    <t>Genética y nutrición cultivo de tomate</t>
+  </si>
+  <si>
+    <t>uso de AgriConecta</t>
+  </si>
+  <si>
+    <t>uso de equipos de protección personal EPP</t>
+  </si>
+  <si>
+    <t>control de plagas y enfermedades en el suelo, cultivo de papa</t>
+  </si>
+  <si>
+    <t>Manejo Integrado de Plagas y Enfermedades</t>
+  </si>
+  <si>
+    <t>Presentación de PROINNOVA y sus líneas de trabajo.</t>
+  </si>
+  <si>
+    <t>caserío las delicias</t>
+  </si>
+  <si>
+    <t>cosechadora de agua ( Reservorio)</t>
   </si>
   <si>
     <t xml:space="preserve">aldea los duraznales </t>
   </si>
   <si>
-    <t xml:space="preserve">restauración minicentro de acopio de envases vacios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manejo integrado de plgas cultivo papa</t>
+    <t>restauración minicentro de acopio de envases vacios</t>
+  </si>
+  <si>
+    <t>manejo integrado de plgas cultivo papa</t>
   </si>
   <si>
     <t xml:space="preserve">cosechadora agua de lluvia (reservorio)  </t>
   </si>
   <si>
-    <t xml:space="preserve">Cosechadora agua de lluvia (RESERVORIO)</t>
+    <t>Cosechadora agua de lluvia (RESERVORIO)</t>
   </si>
   <si>
     <t xml:space="preserve">caserío las delicias aldea el eden </t>
@@ -218,48 +226,47 @@
     <t xml:space="preserve">dia de campo cosechadora de agua( reservorio), sistema de riego </t>
   </si>
   <si>
-    <t xml:space="preserve">caserío las delicias, aldea el eden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosechadora de agua, (Reservorio), sistema de riego</t>
+    <t>caserío las delicias, aldea el eden</t>
+  </si>
+  <si>
+    <t>cosechadora de agua, (Reservorio), sistema de riego</t>
   </si>
   <si>
     <t xml:space="preserve">Duraznales </t>
   </si>
   <si>
-    <t xml:space="preserve">buena vista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manejo integrado de plagas y enfermedades cultivo de tomate</t>
+    <t>buena vista</t>
+  </si>
+  <si>
+    <t>manejo integrado de plagas y enfermedades cultivo de tomate</t>
   </si>
   <si>
     <t xml:space="preserve">caserio las delicias </t>
   </si>
   <si>
-    <t xml:space="preserve">cosechadora agua de lluvia, ( reservorio)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosechadora agua de lluvia ( Reservorio) sistema de riego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosechadora de agua de lluvia ( Reservorio)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instalación de nylon en reservorio</t>
+    <t>cosechadora agua de lluvia, ( reservorio)</t>
+  </si>
+  <si>
+    <t>cosechadora agua de lluvia ( Reservorio) sistema de riego</t>
+  </si>
+  <si>
+    <t>cosechadora de agua de lluvia ( Reservorio)</t>
+  </si>
+  <si>
+    <t>instalación de nylon en reservorio</t>
   </si>
   <si>
     <t xml:space="preserve">caserío las delicias </t>
   </si>
   <si>
-    <t xml:space="preserve">manejo integrado de plagas y nutrición ciltivo de papa</t>
+    <t>manejo integrado de plagas y nutrición ciltivo de papa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -288,13 +295,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -576,14 +594,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11.5546875" style="1"/>
+    <col min="11" max="12" width="11.5546875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +623,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -614,18 +638,18 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>108</v>
       </c>
       <c r="B2" t="s">
@@ -640,7 +664,7 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="1">
         <v>4766</v>
       </c>
       <c r="G2" t="s">
@@ -655,18 +679,18 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="2">
         <v>44162.3582060185</v>
       </c>
-      <c r="L2" t="n">
-        <v>44133.3854166667</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="L2" s="2">
+        <v>44133.385416666701</v>
+      </c>
+      <c r="M2">
         <v>18</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>108</v>
       </c>
       <c r="B3" t="s">
@@ -681,7 +705,7 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="1">
         <v>4637</v>
       </c>
       <c r="G3" t="s">
@@ -696,18 +720,18 @@
       <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="2">
         <v>44147.3883333333</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="2">
         <v>44133.625</v>
       </c>
-      <c r="M3" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="M3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>108</v>
       </c>
       <c r="B4" t="s">
@@ -722,7 +746,7 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="1">
         <v>4878</v>
       </c>
       <c r="G4" t="s">
@@ -737,18 +761,18 @@
       <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="n">
-        <v>44172.4089236111</v>
-      </c>
-      <c r="L4" t="n">
-        <v>44134.4236111111</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="K4" s="2">
+        <v>44172.408923611103</v>
+      </c>
+      <c r="L4" s="2">
+        <v>44134.423611111102</v>
+      </c>
+      <c r="M4">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>108</v>
       </c>
       <c r="B5" t="s">
@@ -763,7 +787,7 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="1">
         <v>4638</v>
       </c>
       <c r="G5" t="s">
@@ -778,18 +802,18 @@
       <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="K5" t="n">
-        <v>44147.4321759259</v>
-      </c>
-      <c r="L5" t="n">
-        <v>44134.5902777778</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="K5" s="2">
+        <v>44147.432175925896</v>
+      </c>
+      <c r="L5" s="2">
+        <v>44134.590277777803</v>
+      </c>
+      <c r="M5">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>108</v>
       </c>
       <c r="B6" t="s">
@@ -804,7 +828,7 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="1">
         <v>4640</v>
       </c>
       <c r="G6" t="s">
@@ -819,18 +843,18 @@
       <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" t="n">
-        <v>44147.4756365741</v>
-      </c>
-      <c r="L6" t="n">
-        <v>44137.6666666667</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="K6" s="2">
+        <v>44147.475636574098</v>
+      </c>
+      <c r="L6" s="2">
+        <v>44137.666666666701</v>
+      </c>
+      <c r="M6">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>108</v>
       </c>
       <c r="B7" t="s">
@@ -845,7 +869,7 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="1">
         <v>4709</v>
       </c>
       <c r="G7" t="s">
@@ -860,18 +884,18 @@
       <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="n">
-        <v>44154.9860300926</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="K7" s="2">
+        <v>44154.986030092601</v>
+      </c>
+      <c r="L7" s="2">
         <v>44138.6875</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>108</v>
       </c>
       <c r="B8" t="s">
@@ -886,7 +910,7 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="1">
         <v>4641</v>
       </c>
       <c r="G8" t="s">
@@ -901,18 +925,18 @@
       <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="K8" t="n">
-        <v>44147.8131597222</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="K8" s="2">
+        <v>44147.813159722202</v>
+      </c>
+      <c r="L8" s="2">
         <v>44140.625</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>108</v>
       </c>
       <c r="B9" t="s">
@@ -927,7 +951,7 @@
       <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="1">
         <v>4642</v>
       </c>
       <c r="G9" t="s">
@@ -942,18 +966,18 @@
       <c r="J9" t="s">
         <v>40</v>
       </c>
-      <c r="K9" t="n">
-        <v>44147.8221643519</v>
-      </c>
-      <c r="L9" t="n">
-        <v>44147.5833333333</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="K9" s="2">
+        <v>44147.822164351899</v>
+      </c>
+      <c r="L9" s="2">
+        <v>44147.583333333299</v>
+      </c>
+      <c r="M9">
         <v>15</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>108</v>
       </c>
       <c r="B10" t="s">
@@ -968,7 +992,7 @@
       <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="1">
         <v>4708</v>
       </c>
       <c r="G10" t="s">
@@ -983,18 +1007,18 @@
       <c r="J10" t="s">
         <v>42</v>
       </c>
-      <c r="K10" t="n">
-        <v>44154.9753125</v>
-      </c>
-      <c r="L10" t="n">
-        <v>44154.6666666667</v>
-      </c>
-      <c r="M10" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="K10" s="2">
+        <v>44154.975312499999</v>
+      </c>
+      <c r="L10" s="2">
+        <v>44154.666666666701</v>
+      </c>
+      <c r="M10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>108</v>
       </c>
       <c r="B11" t="s">
@@ -1009,7 +1033,7 @@
       <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="1">
         <v>4768</v>
       </c>
       <c r="G11" t="s">
@@ -1024,18 +1048,18 @@
       <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="n">
-        <v>44162.3818171296</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="K11" s="2">
+        <v>44162.381817129601</v>
+      </c>
+      <c r="L11" s="2">
         <v>44155.625</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>12</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>108</v>
       </c>
       <c r="B12" t="s">
@@ -1050,7 +1074,7 @@
       <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="1">
         <v>5000</v>
       </c>
       <c r="G12" t="s">
@@ -1065,18 +1089,18 @@
       <c r="J12" t="s">
         <v>27</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="2">
         <v>44176.9987384259</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="2">
         <v>44166.625</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>108</v>
       </c>
       <c r="B13" t="s">
@@ -1091,7 +1115,7 @@
       <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="1">
         <v>4880</v>
       </c>
       <c r="G13" t="s">
@@ -1106,18 +1130,18 @@
       <c r="J13" t="s">
         <v>22</v>
       </c>
-      <c r="K13" t="n">
-        <v>44172.4413310185</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="K13" s="2">
+        <v>44172.441331018497</v>
+      </c>
+      <c r="L13" s="2">
         <v>44169.625</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>8</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>108</v>
       </c>
       <c r="B14" t="s">
@@ -1132,7 +1156,7 @@
       <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="1">
         <v>4879</v>
       </c>
       <c r="G14" t="s">
@@ -1147,18 +1171,18 @@
       <c r="J14" t="s">
         <v>27</v>
       </c>
-      <c r="K14" t="n">
-        <v>44172.421087963</v>
-      </c>
-      <c r="L14" t="n">
-        <v>44169.6666666667</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="K14" s="2">
+        <v>44172.421087962997</v>
+      </c>
+      <c r="L14" s="2">
+        <v>44169.666666666701</v>
+      </c>
+      <c r="M14">
         <v>11</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>108</v>
       </c>
       <c r="B15" t="s">
@@ -1173,7 +1197,7 @@
       <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="1">
         <v>4999</v>
       </c>
       <c r="G15" t="s">
@@ -1188,18 +1212,18 @@
       <c r="J15" t="s">
         <v>27</v>
       </c>
-      <c r="K15" t="n">
-        <v>44176.9609953704</v>
-      </c>
-      <c r="L15" t="n">
-        <v>44176.6041666667</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="K15" s="2">
+        <v>44176.960995370398</v>
+      </c>
+      <c r="L15" s="2">
+        <v>44176.604166666701</v>
+      </c>
+      <c r="M15">
         <v>11</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>108</v>
       </c>
       <c r="B16" t="s">
@@ -1214,7 +1238,7 @@
       <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="1">
         <v>5226</v>
       </c>
       <c r="G16" t="s">
@@ -1229,18 +1253,18 @@
       <c r="J16" t="s">
         <v>42</v>
       </c>
-      <c r="K16" t="n">
-        <v>44225.4611458333</v>
-      </c>
-      <c r="L16" t="n">
-        <v>44218.6666666667</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="K16" s="2">
+        <v>44225.461145833302</v>
+      </c>
+      <c r="L16" s="2">
+        <v>44218.666666666701</v>
+      </c>
+      <c r="M16">
         <v>11</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>108</v>
       </c>
       <c r="B17" t="s">
@@ -1255,7 +1279,7 @@
       <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="1">
         <v>5219</v>
       </c>
       <c r="G17" t="s">
@@ -1270,18 +1294,18 @@
       <c r="J17" t="s">
         <v>20</v>
       </c>
-      <c r="K17" t="n">
-        <v>44225.4225231481</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="K17" s="2">
+        <v>44225.422523148103</v>
+      </c>
+      <c r="L17" s="2">
         <v>44221.59375</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>20</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>108</v>
       </c>
       <c r="B18" t="s">
@@ -1296,7 +1320,7 @@
       <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="1">
         <v>5231</v>
       </c>
       <c r="G18" t="s">
@@ -1311,18 +1335,18 @@
       <c r="J18" t="s">
         <v>42</v>
       </c>
-      <c r="K18" t="n">
-        <v>44225.4728356482</v>
-      </c>
-      <c r="L18" t="n">
-        <v>44222.6805555556</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="K18" s="2">
+        <v>44225.472835648201</v>
+      </c>
+      <c r="L18" s="2">
+        <v>44222.680555555598</v>
+      </c>
+      <c r="M18">
         <v>10</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>108</v>
       </c>
       <c r="B19" t="s">
@@ -1337,7 +1361,7 @@
       <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="1">
         <v>5366</v>
       </c>
       <c r="G19" t="s">
@@ -1352,18 +1376,18 @@
       <c r="J19" t="s">
         <v>33</v>
       </c>
-      <c r="K19" t="n">
-        <v>44237.9056597222</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="K19" s="2">
+        <v>44237.905659722201</v>
+      </c>
+      <c r="L19" s="2">
         <v>44232.625</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>11</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>108</v>
       </c>
       <c r="B20" t="s">
@@ -1378,7 +1402,7 @@
       <c r="E20" t="s">
         <v>34</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="1">
         <v>5367</v>
       </c>
       <c r="G20" t="s">
@@ -1393,18 +1417,18 @@
       <c r="J20" t="s">
         <v>57</v>
       </c>
-      <c r="K20" t="n">
-        <v>44237.9256828704</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="K20" s="2">
+        <v>44237.925682870402</v>
+      </c>
+      <c r="L20" s="2">
         <v>44236.625</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>11</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>108</v>
       </c>
       <c r="B21" t="s">
@@ -1419,7 +1443,7 @@
       <c r="E21" t="s">
         <v>43</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="1">
         <v>5558</v>
       </c>
       <c r="G21" t="s">
@@ -1434,18 +1458,18 @@
       <c r="J21" t="s">
         <v>42</v>
       </c>
-      <c r="K21" t="n">
-        <v>44253.4306365741</v>
-      </c>
-      <c r="L21" t="n">
-        <v>44245.6666666667</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="K21" s="2">
+        <v>44253.430636574099</v>
+      </c>
+      <c r="L21" s="2">
+        <v>44245.666666666701</v>
+      </c>
+      <c r="M21">
         <v>8</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>108</v>
       </c>
       <c r="B22" t="s">
@@ -1460,7 +1484,7 @@
       <c r="E22" t="s">
         <v>59</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="1">
         <v>5615</v>
       </c>
       <c r="G22" t="s">
@@ -1475,18 +1499,18 @@
       <c r="J22" t="s">
         <v>27</v>
       </c>
-      <c r="K22" t="n">
-        <v>44260.3341898148</v>
-      </c>
-      <c r="L22" t="n">
-        <v>44253.6145833333</v>
-      </c>
-      <c r="M22" t="n">
+      <c r="K22" s="2">
+        <v>44260.334189814799</v>
+      </c>
+      <c r="L22" s="2">
+        <v>44253.614583333299</v>
+      </c>
+      <c r="M22">
         <v>10</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>108</v>
       </c>
       <c r="B23" t="s">
@@ -1501,7 +1525,7 @@
       <c r="E23" t="s">
         <v>61</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="1">
         <v>5616</v>
       </c>
       <c r="G23" t="s">
@@ -1516,18 +1540,18 @@
       <c r="J23" t="s">
         <v>27</v>
       </c>
-      <c r="K23" t="n">
-        <v>44260.3525231481</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="K23" s="2">
+        <v>44260.352523148104</v>
+      </c>
+      <c r="L23" s="2">
         <v>44256.625</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>10</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>108</v>
       </c>
       <c r="B24" t="s">
@@ -1542,7 +1566,7 @@
       <c r="E24" t="s">
         <v>24</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="1">
         <v>5643</v>
       </c>
       <c r="G24" t="s">
@@ -1557,18 +1581,18 @@
       <c r="J24" t="s">
         <v>57</v>
       </c>
-      <c r="K24" t="n">
-        <v>44267.3486921296</v>
-      </c>
-      <c r="L24" t="n">
-        <v>44260.6354166667</v>
-      </c>
-      <c r="M24" t="n">
+      <c r="K24" s="2">
+        <v>44267.348692129599</v>
+      </c>
+      <c r="L24" s="2">
+        <v>44260.635416666701</v>
+      </c>
+      <c r="M24">
         <v>10</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>108</v>
       </c>
       <c r="B25" t="s">
@@ -1583,7 +1607,7 @@
       <c r="E25" t="s">
         <v>24</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="1">
         <v>5644</v>
       </c>
       <c r="G25" t="s">
@@ -1598,18 +1622,18 @@
       <c r="J25" t="s">
         <v>27</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="2">
         <v>44267.3589699074</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="2">
         <v>44264.625</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>8</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>108</v>
       </c>
       <c r="B26" t="s">
@@ -1624,7 +1648,7 @@
       <c r="E26" t="s">
         <v>24</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="1">
         <v>5647</v>
       </c>
       <c r="G26" t="s">
@@ -1639,18 +1663,18 @@
       <c r="J26" t="s">
         <v>20</v>
       </c>
-      <c r="K26" t="n">
-        <v>44267.4302430556</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="K26" s="2">
+        <v>44267.430243055598</v>
+      </c>
+      <c r="L26" s="2">
         <v>44266.59375</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>10</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>108</v>
       </c>
       <c r="B27" t="s">
@@ -1665,7 +1689,7 @@
       <c r="E27" t="s">
         <v>24</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="1">
         <v>5650</v>
       </c>
       <c r="G27" t="s">
@@ -1680,18 +1704,18 @@
       <c r="J27" t="s">
         <v>27</v>
       </c>
-      <c r="K27" t="n">
-        <v>44267.4405208333</v>
-      </c>
-      <c r="L27" t="n">
-        <v>44266.6458333333</v>
-      </c>
-      <c r="M27" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="K27" s="2">
+        <v>44267.440520833297</v>
+      </c>
+      <c r="L27" s="2">
+        <v>44266.645833333299</v>
+      </c>
+      <c r="M27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>108</v>
       </c>
       <c r="B28" t="s">
@@ -1706,7 +1730,7 @@
       <c r="E28" t="s">
         <v>66</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="1">
         <v>5711</v>
       </c>
       <c r="G28" t="s">
@@ -1721,18 +1745,18 @@
       <c r="J28" t="s">
         <v>27</v>
       </c>
-      <c r="K28" t="n">
-        <v>44274.3864699074</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="K28" s="2">
+        <v>44274.386469907397</v>
+      </c>
+      <c r="L28" s="2">
         <v>44271.625</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>8</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>108</v>
       </c>
       <c r="B29" t="s">
@@ -1747,7 +1771,7 @@
       <c r="E29" t="s">
         <v>68</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="1">
         <v>5712</v>
       </c>
       <c r="G29" t="s">
@@ -1762,18 +1786,18 @@
       <c r="J29" t="s">
         <v>27</v>
       </c>
-      <c r="K29" t="n">
-        <v>44274.3922685185</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="K29" s="2">
+        <v>44274.392268518503</v>
+      </c>
+      <c r="L29" s="2">
         <v>44273.625</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>10</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>108</v>
       </c>
       <c r="B30" t="s">
@@ -1788,7 +1812,7 @@
       <c r="E30" t="s">
         <v>70</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="1">
         <v>6303</v>
       </c>
       <c r="G30" t="s">
@@ -1803,18 +1827,18 @@
       <c r="J30" t="s">
         <v>20</v>
       </c>
-      <c r="K30" t="n">
-        <v>44319.4877546296</v>
-      </c>
-      <c r="L30" t="n">
-        <v>44301.6666666667</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="K30" s="2">
+        <v>44319.487754629597</v>
+      </c>
+      <c r="L30" s="2">
+        <v>44301.666666666701</v>
+      </c>
+      <c r="M30">
         <v>11</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>108</v>
       </c>
       <c r="B31" t="s">
@@ -1829,7 +1853,7 @@
       <c r="E31" t="s">
         <v>71</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="1">
         <v>6304</v>
       </c>
       <c r="G31" t="s">
@@ -1844,18 +1868,18 @@
       <c r="J31" t="s">
         <v>57</v>
       </c>
-      <c r="K31" t="n">
-        <v>44319.498912037</v>
-      </c>
-      <c r="L31" t="n">
-        <v>44305.6666666667</v>
-      </c>
-      <c r="M31" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="K31" s="2">
+        <v>44319.498912037001</v>
+      </c>
+      <c r="L31" s="2">
+        <v>44305.666666666701</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>108</v>
       </c>
       <c r="B32" t="s">
@@ -1870,7 +1894,7 @@
       <c r="E32" t="s">
         <v>73</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="1">
         <v>6366</v>
       </c>
       <c r="G32" t="s">
@@ -1885,18 +1909,18 @@
       <c r="J32" t="s">
         <v>27</v>
       </c>
-      <c r="K32" t="n">
-        <v>44328.9325578704</v>
-      </c>
-      <c r="L32" t="n">
-        <v>44314.1041666667</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="K32" s="2">
+        <v>44328.932557870401</v>
+      </c>
+      <c r="L32" s="2">
+        <v>44314.104166666701</v>
+      </c>
+      <c r="M32">
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>108</v>
       </c>
       <c r="B33" t="s">
@@ -1911,7 +1935,7 @@
       <c r="E33" t="s">
         <v>59</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="1">
         <v>6365</v>
       </c>
       <c r="G33" t="s">
@@ -1926,18 +1950,18 @@
       <c r="J33" t="s">
         <v>27</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" s="2">
         <v>44328.9070601852</v>
       </c>
-      <c r="L33" t="n">
-        <v>44315.1041666667</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" s="2">
+        <v>44315.104166666701</v>
+      </c>
+      <c r="M33">
         <v>8</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>108</v>
       </c>
       <c r="B34" t="s">
@@ -1952,7 +1976,7 @@
       <c r="E34" t="s">
         <v>59</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="1">
         <v>6364</v>
       </c>
       <c r="G34" t="s">
@@ -1967,18 +1991,18 @@
       <c r="J34" t="s">
         <v>27</v>
       </c>
-      <c r="K34" t="n">
-        <v>44328.8956481482</v>
-      </c>
-      <c r="L34" t="n">
-        <v>44316.0416666667</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="K34" s="2">
+        <v>44328.895648148202</v>
+      </c>
+      <c r="L34" s="2">
+        <v>44316.041666666701</v>
+      </c>
+      <c r="M34">
         <v>16</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>108</v>
       </c>
       <c r="B35" t="s">
@@ -1993,7 +2017,7 @@
       <c r="E35" t="s">
         <v>59</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="1">
         <v>6389</v>
       </c>
       <c r="G35" t="s">
@@ -2008,18 +2032,18 @@
       <c r="J35" t="s">
         <v>27</v>
       </c>
-      <c r="K35" t="n">
-        <v>44330.4362152778</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="K35" s="2">
+        <v>44330.436215277798</v>
+      </c>
+      <c r="L35" s="2">
         <v>44329.625</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>5</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>108</v>
       </c>
       <c r="B36" t="s">
@@ -2034,7 +2058,7 @@
       <c r="E36" t="s">
         <v>78</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="1">
         <v>6410</v>
       </c>
       <c r="G36" t="s">
@@ -2049,18 +2073,18 @@
       <c r="J36" t="s">
         <v>57</v>
       </c>
-      <c r="K36" t="n">
-        <v>44330.8723842593</v>
-      </c>
-      <c r="L36" t="n">
+      <c r="K36" s="2">
+        <v>44330.872384259303</v>
+      </c>
+      <c r="L36" s="2">
         <v>44330.625</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>